--- a/assets/test.xlsx
+++ b/assets/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,66 @@
   </si>
   <si>
     <t>201130220302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201130220301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201130220312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201130221421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201130223411</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201130223322</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201130223422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201130220233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹姆斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴维斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利拉德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥尼尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托马斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈登</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布雷特</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -439,6 +499,70 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
